--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Lama2-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Lama2</t>
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.371178</v>
+        <v>3.413467</v>
       </c>
       <c r="H2">
-        <v>10.113534</v>
+        <v>10.240401</v>
       </c>
       <c r="I2">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="J2">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N2">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O2">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P2">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q2">
-        <v>551.902243292056</v>
+        <v>544.3921330773014</v>
       </c>
       <c r="R2">
-        <v>4967.120189628504</v>
+        <v>4899.529197695712</v>
       </c>
       <c r="S2">
-        <v>0.01123937508316612</v>
+        <v>0.01114726612292744</v>
       </c>
       <c r="T2">
-        <v>0.01123937508316612</v>
+        <v>0.01114726612292744</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.371178</v>
+        <v>3.413467</v>
       </c>
       <c r="H3">
-        <v>10.113534</v>
+        <v>10.240401</v>
       </c>
       <c r="I3">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="J3">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>517.675491</v>
       </c>
       <c r="O3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P3">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q3">
-        <v>581.725408799466</v>
+        <v>589.022735079099</v>
       </c>
       <c r="R3">
-        <v>5235.528679195193</v>
+        <v>5301.204615711891</v>
       </c>
       <c r="S3">
-        <v>0.01184671768301807</v>
+        <v>0.01206114633447313</v>
       </c>
       <c r="T3">
-        <v>0.01184671768301807</v>
+        <v>0.01206114633447313</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.371178</v>
+        <v>3.413467</v>
       </c>
       <c r="H4">
-        <v>10.113534</v>
+        <v>10.240401</v>
       </c>
       <c r="I4">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="J4">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N4">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P4">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q4">
-        <v>375.846446860918</v>
+        <v>253.9199784988797</v>
       </c>
       <c r="R4">
-        <v>3382.618021748262</v>
+        <v>2285.279806489917</v>
       </c>
       <c r="S4">
-        <v>0.007654035187006322</v>
+        <v>0.005199402052808694</v>
       </c>
       <c r="T4">
-        <v>0.007654035187006322</v>
+        <v>0.005199402052808695</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.371178</v>
+        <v>3.413467</v>
       </c>
       <c r="H5">
-        <v>10.113534</v>
+        <v>10.240401</v>
       </c>
       <c r="I5">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="J5">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N5">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P5">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q5">
-        <v>201.37517151334</v>
+        <v>199.3963583445604</v>
       </c>
       <c r="R5">
-        <v>1812.37654362006</v>
+        <v>1794.567225101043</v>
       </c>
       <c r="S5">
-        <v>0.004100963735125871</v>
+        <v>0.004082947080526235</v>
       </c>
       <c r="T5">
-        <v>0.00410096373512587</v>
+        <v>0.004082947080526236</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,14 +773,14 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
         <v>3</v>
       </c>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.371178</v>
+        <v>3.413467</v>
       </c>
       <c r="H6">
-        <v>10.113534</v>
+        <v>10.240401</v>
       </c>
       <c r="I6">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="J6">
-        <v>0.04081104787649455</v>
+        <v>0.03736574214560074</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N6">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O6">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P6">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q6">
-        <v>293.150836966522</v>
+        <v>238.076406690872</v>
       </c>
       <c r="R6">
-        <v>2638.357532698698</v>
+        <v>2142.687660217848</v>
       </c>
       <c r="S6">
-        <v>0.005969956188178165</v>
+        <v>0.004874980554865237</v>
       </c>
       <c r="T6">
-        <v>0.005969956188178164</v>
+        <v>0.004874980554865238</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>177.833096</v>
       </c>
       <c r="I7">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="J7">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N7">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O7">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P7">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q7">
-        <v>9704.469734711085</v>
+        <v>9453.822996109284</v>
       </c>
       <c r="R7">
-        <v>87340.22761239976</v>
+        <v>85084.40696498354</v>
       </c>
       <c r="S7">
-        <v>0.1976295198240979</v>
+        <v>0.193581564489135</v>
       </c>
       <c r="T7">
-        <v>0.1976295198240978</v>
+        <v>0.193581564489135</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>177.833096</v>
       </c>
       <c r="I8">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="J8">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>517.675491</v>
       </c>
       <c r="O8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P8">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q8">
         <v>10228.8705875389</v>
@@ -948,10 +948,10 @@
         <v>92059.83528785012</v>
       </c>
       <c r="S8">
-        <v>0.2083088347761574</v>
+        <v>0.2094518558373259</v>
       </c>
       <c r="T8">
-        <v>0.2083088347761574</v>
+        <v>0.2094518558373259</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,10 +959,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
@@ -980,10 +980,10 @@
         <v>177.833096</v>
       </c>
       <c r="I9">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="J9">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N9">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P9">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q9">
-        <v>6608.761810251147</v>
+        <v>4409.532001013358</v>
       </c>
       <c r="R9">
-        <v>59478.85629226032</v>
+        <v>39685.78800912023</v>
       </c>
       <c r="S9">
-        <v>0.1345860679558968</v>
+        <v>0.09029194895783138</v>
       </c>
       <c r="T9">
-        <v>0.1345860679558968</v>
+        <v>0.09029194895783139</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
         <v>23</v>
@@ -1042,10 +1042,10 @@
         <v>177.833096</v>
       </c>
       <c r="I10">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="J10">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N10">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P10">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q10">
-        <v>3540.915589718515</v>
+        <v>3462.683906180881</v>
       </c>
       <c r="R10">
-        <v>31868.24030746663</v>
+        <v>31164.15515562793</v>
       </c>
       <c r="S10">
-        <v>0.07211001392798576</v>
+        <v>0.07090377809757074</v>
       </c>
       <c r="T10">
-        <v>0.07211001392798574</v>
+        <v>0.07090377809757076</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>177.833096</v>
       </c>
       <c r="I11">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="J11">
-        <v>0.7176082064767123</v>
+        <v>0.6488872467093683</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N11">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O11">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P11">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q11">
-        <v>5154.669073416656</v>
+        <v>4134.395175188245</v>
       </c>
       <c r="R11">
-        <v>46392.0216607499</v>
+        <v>37209.55657669421</v>
       </c>
       <c r="S11">
-        <v>0.1049737699925745</v>
+        <v>0.08465809932750513</v>
       </c>
       <c r="T11">
-        <v>0.1049737699925744</v>
+        <v>0.08465809932750515</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.01422566666666667</v>
+        <v>0.06447599999999999</v>
       </c>
       <c r="H12">
-        <v>0.042677</v>
+        <v>0.193428</v>
       </c>
       <c r="I12">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="J12">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N12">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O12">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P12">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q12">
-        <v>2.328912132690222</v>
+        <v>10.282867000704</v>
       </c>
       <c r="R12">
-        <v>20.960209194212</v>
+        <v>92.545803006336</v>
       </c>
       <c r="S12">
-        <v>4.742781409784952E-05</v>
+        <v>0.0002105575154357342</v>
       </c>
       <c r="T12">
-        <v>4.742781409784951E-05</v>
+        <v>0.0002105575154357342</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.01422566666666667</v>
+        <v>0.06447599999999999</v>
       </c>
       <c r="H13">
-        <v>0.042677</v>
+        <v>0.193428</v>
       </c>
       <c r="I13">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="J13">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>517.675491</v>
       </c>
       <c r="O13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P13">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q13">
-        <v>2.454759658823</v>
+        <v>11.125881652572</v>
       </c>
       <c r="R13">
-        <v>22.092836929407</v>
+        <v>100.132934873148</v>
       </c>
       <c r="S13">
-        <v>4.99906729495508E-05</v>
+        <v>0.0002278195368701351</v>
       </c>
       <c r="T13">
-        <v>4.999067294955079E-05</v>
+        <v>0.0002278195368701351</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.01422566666666667</v>
+        <v>0.06447599999999999</v>
       </c>
       <c r="H14">
-        <v>0.042677</v>
+        <v>0.193428</v>
       </c>
       <c r="I14">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="J14">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N14">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P14">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q14">
-        <v>1.585993463084555</v>
+        <v>4.796221710563999</v>
       </c>
       <c r="R14">
-        <v>14.273941167761</v>
+        <v>43.165995395076</v>
       </c>
       <c r="S14">
-        <v>3.229842898396038E-05</v>
+        <v>9.821001543500883E-05</v>
       </c>
       <c r="T14">
-        <v>3.229842898396038E-05</v>
+        <v>9.821001543500886E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.01422566666666667</v>
+        <v>0.06447599999999999</v>
       </c>
       <c r="H15">
-        <v>0.042677</v>
+        <v>0.193428</v>
       </c>
       <c r="I15">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="J15">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N15">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P15">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q15">
-        <v>0.8497611413255555</v>
+        <v>3.766340673755999</v>
       </c>
       <c r="R15">
-        <v>7.647850271929999</v>
+        <v>33.897066063804</v>
       </c>
       <c r="S15">
-        <v>1.730520996161844E-05</v>
+        <v>7.712161739486847E-05</v>
       </c>
       <c r="T15">
-        <v>1.730520996161844E-05</v>
+        <v>7.712161739486847E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.01422566666666667</v>
+        <v>0.06447599999999999</v>
       </c>
       <c r="H16">
-        <v>0.042677</v>
+        <v>0.193428</v>
       </c>
       <c r="I16">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="J16">
-        <v>0.0001722140935329982</v>
+        <v>0.0007057907958623162</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N16">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O16">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P16">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q16">
-        <v>1.237035270679889</v>
+        <v>4.496957022816</v>
       </c>
       <c r="R16">
-        <v>11.133317436119</v>
+        <v>40.472613205344</v>
       </c>
       <c r="S16">
-        <v>2.51919675400191E-05</v>
+        <v>9.208211072656949E-05</v>
       </c>
       <c r="T16">
-        <v>2.51919675400191E-05</v>
+        <v>9.208211072656952E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.94144166666667</v>
+        <v>28.54642066666667</v>
       </c>
       <c r="H17">
-        <v>59.824325</v>
+        <v>85.639262</v>
       </c>
       <c r="I17">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="J17">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>163.7119853333333</v>
+        <v>159.4836373333333</v>
       </c>
       <c r="N17">
-        <v>491.135956</v>
+        <v>478.450912</v>
       </c>
       <c r="O17">
-        <v>0.2754003062401034</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="P17">
-        <v>0.2754003062401033</v>
+        <v>0.2983285084902258</v>
       </c>
       <c r="Q17">
-        <v>3264.653005658855</v>
+        <v>4552.687000767439</v>
       </c>
       <c r="R17">
-        <v>29381.8770509297</v>
+        <v>40974.18300690695</v>
       </c>
       <c r="S17">
-        <v>0.0664839835187415</v>
+        <v>0.09322326772995579</v>
       </c>
       <c r="T17">
-        <v>0.06648398351874149</v>
+        <v>0.0932232677299558</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.94144166666667</v>
+        <v>28.54642066666667</v>
       </c>
       <c r="H18">
-        <v>59.824325</v>
+        <v>85.639262</v>
       </c>
       <c r="I18">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="J18">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>517.675491</v>
       </c>
       <c r="O18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="P18">
-        <v>0.290282124557779</v>
+        <v>0.3227862111630279</v>
       </c>
       <c r="Q18">
-        <v>3441.065202013175</v>
+        <v>4925.927444969738</v>
       </c>
       <c r="R18">
-        <v>30969.58681811857</v>
+        <v>44333.34700472764</v>
       </c>
       <c r="S18">
-        <v>0.070076581425654</v>
+        <v>0.1008659398160564</v>
       </c>
       <c r="T18">
-        <v>0.07007658142565398</v>
+        <v>0.1008659398160564</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,10 +1579,10 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.94144166666667</v>
+        <v>28.54642066666667</v>
       </c>
       <c r="H19">
-        <v>59.824325</v>
+        <v>85.639262</v>
       </c>
       <c r="I19">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="J19">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>111.4881643333333</v>
+        <v>74.38770566666666</v>
       </c>
       <c r="N19">
-        <v>334.464493</v>
+        <v>223.163117</v>
       </c>
       <c r="O19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280481</v>
       </c>
       <c r="P19">
-        <v>0.1875481171218523</v>
+        <v>0.1391489036280482</v>
       </c>
       <c r="Q19">
-        <v>2223.234725576914</v>
+        <v>2123.50273838885</v>
       </c>
       <c r="R19">
-        <v>20009.11253019223</v>
+        <v>19111.52464549966</v>
       </c>
       <c r="S19">
-        <v>0.04527571554996522</v>
+        <v>0.04348198421563975</v>
       </c>
       <c r="T19">
-        <v>0.04527571554996522</v>
+        <v>0.04348198421563976</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,10 +1641,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.94144166666667</v>
+        <v>28.54642066666667</v>
       </c>
       <c r="H20">
-        <v>59.824325</v>
+        <v>85.639262</v>
       </c>
       <c r="I20">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="J20">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>59.73436333333333</v>
+        <v>58.41461433333333</v>
       </c>
       <c r="N20">
-        <v>179.20309</v>
+        <v>175.243843</v>
       </c>
       <c r="O20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759847</v>
       </c>
       <c r="P20">
-        <v>0.100486607144627</v>
+        <v>0.1092697975759848</v>
       </c>
       <c r="Q20">
-        <v>1191.189321907139</v>
+        <v>1667.528153840429</v>
       </c>
       <c r="R20">
-        <v>10720.70389716425</v>
+        <v>15007.75338456387</v>
       </c>
       <c r="S20">
-        <v>0.02425832427155374</v>
+        <v>0.03414520337253603</v>
       </c>
       <c r="T20">
-        <v>0.02425832427155374</v>
+        <v>0.03414520337253604</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,14 +1703,14 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
       <c r="E21">
         <v>3</v>
       </c>
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.94144166666667</v>
+        <v>28.54642066666667</v>
       </c>
       <c r="H21">
-        <v>59.824325</v>
+        <v>85.639262</v>
       </c>
       <c r="I21">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="J21">
-        <v>0.2414085315532602</v>
+        <v>0.3124852807455044</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,338 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>86.95798233333333</v>
+        <v>69.746216</v>
       </c>
       <c r="N21">
-        <v>260.873947</v>
+        <v>209.238648</v>
       </c>
       <c r="O21">
-        <v>0.1462828449356384</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="P21">
-        <v>0.1462828449356383</v>
+        <v>0.1304665791427133</v>
       </c>
       <c r="Q21">
-        <v>1734.067532151197</v>
+        <v>1991.004821844198</v>
       </c>
       <c r="R21">
-        <v>15606.60778936077</v>
+        <v>17919.04339659778</v>
       </c>
       <c r="S21">
-        <v>0.03531392678734572</v>
+        <v>0.04076888561131634</v>
       </c>
       <c r="T21">
-        <v>0.03531392678734571</v>
+        <v>0.04076888561131635</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.05078666666666667</v>
+      </c>
+      <c r="H22">
+        <v>0.15236</v>
+      </c>
+      <c r="I22">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="J22">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>159.4836373333333</v>
+      </c>
+      <c r="N22">
+        <v>478.450912</v>
+      </c>
+      <c r="O22">
+        <v>0.2983285084902258</v>
+      </c>
+      <c r="P22">
+        <v>0.2983285084902258</v>
+      </c>
+      <c r="Q22">
+        <v>8.099642328035557</v>
+      </c>
+      <c r="R22">
+        <v>72.89678095232</v>
+      </c>
+      <c r="S22">
+        <v>0.0001658526327718245</v>
+      </c>
+      <c r="T22">
+        <v>0.0001658526327718245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.05078666666666667</v>
+      </c>
+      <c r="H23">
+        <v>0.15236</v>
+      </c>
+      <c r="I23">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="J23">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>172.558497</v>
+      </c>
+      <c r="N23">
+        <v>517.675491</v>
+      </c>
+      <c r="O23">
+        <v>0.3227862111630279</v>
+      </c>
+      <c r="P23">
+        <v>0.3227862111630279</v>
+      </c>
+      <c r="Q23">
+        <v>8.76367086764</v>
+      </c>
+      <c r="R23">
+        <v>78.87303780875999</v>
+      </c>
+      <c r="S23">
+        <v>0.0001794496383022819</v>
+      </c>
+      <c r="T23">
+        <v>0.0001794496383022819</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.05078666666666667</v>
+      </c>
+      <c r="H24">
+        <v>0.15236</v>
+      </c>
+      <c r="I24">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="J24">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>74.38770566666666</v>
+      </c>
+      <c r="N24">
+        <v>223.163117</v>
+      </c>
+      <c r="O24">
+        <v>0.1391489036280481</v>
+      </c>
+      <c r="P24">
+        <v>0.1391489036280482</v>
+      </c>
+      <c r="Q24">
+        <v>3.777903611791111</v>
+      </c>
+      <c r="R24">
+        <v>34.00113250612</v>
+      </c>
+      <c r="S24">
+        <v>7.735838633330205E-05</v>
+      </c>
+      <c r="T24">
+        <v>7.735838633330206E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.05078666666666667</v>
+      </c>
+      <c r="H25">
+        <v>0.15236</v>
+      </c>
+      <c r="I25">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="J25">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>58.41461433333333</v>
+      </c>
+      <c r="N25">
+        <v>175.243843</v>
+      </c>
+      <c r="O25">
+        <v>0.1092697975759847</v>
+      </c>
+      <c r="P25">
+        <v>0.1092697975759848</v>
+      </c>
+      <c r="Q25">
+        <v>2.966683546608889</v>
+      </c>
+      <c r="R25">
+        <v>26.70015191948</v>
+      </c>
+      <c r="S25">
+        <v>6.074740795687367E-05</v>
+      </c>
+      <c r="T25">
+        <v>6.074740795687368E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.05078666666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.15236</v>
+      </c>
+      <c r="I26">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="J26">
+        <v>0.0005559396036643222</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>69.746216</v>
+      </c>
+      <c r="N26">
+        <v>209.238648</v>
+      </c>
+      <c r="O26">
+        <v>0.1304665791427133</v>
+      </c>
+      <c r="P26">
+        <v>0.1304665791427133</v>
+      </c>
+      <c r="Q26">
+        <v>3.542177823253334</v>
+      </c>
+      <c r="R26">
+        <v>31.87960040928</v>
+      </c>
+      <c r="S26">
+        <v>7.253153830003996E-05</v>
+      </c>
+      <c r="T26">
+        <v>7.253153830003997E-05</v>
       </c>
     </row>
   </sheetData>
